--- a/hoatdong.xlsx
+++ b/hoatdong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Downloads/lxbc_split/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86539849-846A-DC4E-B44F-1EF6FEEDC3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C172D3-7D7B-024F-B2FD-5F5EB84356E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="14660" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18720" yWindow="660" windowWidth="10680" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>TKB-LXBC</t>
   </si>
   <si>
-    <t>https://lxbc.netlify.app/tkb</t>
-  </si>
-  <si>
     <t>Dịch vụ</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>LXBC Shop</t>
   </si>
   <si>
-    <t>https://lxbc.netlify.app/Shop</t>
-  </si>
-  <si>
     <t>Xem ảnh</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>Đến</t>
   </si>
   <si>
-    <t>https://docs.google.com/forms/d/e/1FAIpQLSf_owh7E3h8O3jl1CnMGNxXPobPHQnAoe6NqyYY-uDa7iX4xw/viewform?usp=header</t>
-  </si>
-  <si>
     <t>caudat.jpg</t>
   </si>
   <si>
@@ -122,6 +113,15 @@
   </si>
   <si>
     <t>dapxe.jpg</t>
+  </si>
+  <si>
+    <t>https://forms.gle/gtgp2jWGgHS126Se8</t>
+  </si>
+  <si>
+    <t>https://lxbc.online/shop</t>
+  </si>
+  <si>
+    <t>https://lxbc.online/tkb</t>
   </si>
 </sst>
 </file>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -570,19 +570,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -593,16 +593,16 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -625,30 +625,30 @@
         <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -656,16 +656,16 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/hoatdong.xlsx
+++ b/hoatdong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C172D3-7D7B-024F-B2FD-5F5EB84356E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BAEB8A-28C4-1643-8470-77595409F33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18720" yWindow="660" windowWidth="10680" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nổi Bật</t>
   </si>
@@ -40,9 +40,6 @@
     <t>tieu de</t>
   </si>
   <si>
-    <t>HOWL</t>
-  </si>
-  <si>
     <t xml:space="preserve">ảnh nền </t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>https://drive.google.com/drive/u/1/folders/1NmNmXHJlLOZc50A5QDrDDnz8HC1-fCgN?fbclid=IwY2xjawNwTDZleHRuA2FlbQIxMABicmlkETFNbmFOYzl6b0xVR3pTWlN1AR6UeHkvcJuXfnJ3Ue8Anyv2wD2-nIW5BOos497-hVkzRt0hitH9KUo0wIOQqw_aem_fAZ8kZhHjuzlFjkqZIyy8w</t>
   </si>
   <si>
-    <t>TKB-LXBC</t>
-  </si>
-  <si>
     <t>Dịch vụ</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>chu de</t>
   </si>
   <si>
-    <t>Đến</t>
-  </si>
-  <si>
     <t>caudat.jpg</t>
   </si>
   <si>
@@ -122,13 +113,19 @@
   </si>
   <si>
     <t>https://lxbc.online/tkb</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Đang Cập Nhập Thêm…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +153,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,7 +211,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -217,6 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -525,7 +529,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -544,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -562,27 +566,27 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -593,16 +597,16 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -613,59 +617,53 @@
         <v>2024</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/hoatdong.xlsx
+++ b/hoatdong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BAEB8A-28C4-1643-8470-77595409F33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C861DA-3E07-C045-9D5E-A9F7C59C103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="660" windowWidth="10680" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18720" yWindow="660" windowWidth="10680" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>https://forms.gle/gtgp2jWGgHS126Se8</t>
   </si>
   <si>
-    <t>https://lxbc.online/shop</t>
-  </si>
-  <si>
     <t>https://lxbc.online/tkb</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>Đang Cập Nhập Thêm…</t>
+  </si>
+  <si>
+    <t>https://lxbc.online/Shop</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF808080"/>
+      <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,7 +649,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -657,13 +657,13 @@
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/hoatdong.xlsx
+++ b/hoatdong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C861DA-3E07-C045-9D5E-A9F7C59C103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2C4BE-CF8A-3442-B33C-09C891CE119A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="660" windowWidth="10680" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18720" yWindow="660" windowWidth="10680" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Nổi Bật</t>
   </si>
@@ -97,12 +97,6 @@
     <t>ĐẠP XE LXBC</t>
   </si>
   <si>
-    <t>UPDATE…</t>
-  </si>
-  <si>
-    <t>https//lxbc.online</t>
-  </si>
-  <si>
     <t>dapxe.jpg</t>
   </si>
   <si>
@@ -119,6 +113,18 @@
   </si>
   <si>
     <t>https://lxbc.online/Shop</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/forms/d/1CZDA4neWpuzDb2Yt9v54WbPFIqpkLmxR-Hod9oaFlFQ/edit?hl=vi</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Xem ngay</t>
+  </si>
+  <si>
+    <t>nghithucnha</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -221,6 +227,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,7 +552,7 @@
     <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,25 +580,28 @@
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -600,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>21</v>
@@ -609,7 +621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -635,7 +647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -649,25 +661,30 @@
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/hoatdong.xlsx
+++ b/hoatdong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2C4BE-CF8A-3442-B33C-09C891CE119A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD4F1B-0C9A-2B49-8B9C-EE64E000C7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="660" windowWidth="10680" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Nổi Bật</t>
   </si>
@@ -125,6 +125,33 @@
   </si>
   <si>
     <t>nghithucnha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LXBC </t>
+  </si>
+  <si>
+    <t>LXBC</t>
+  </si>
+  <si>
+    <t>Bổn Mạng Nhà 2026</t>
+  </si>
+  <si>
+    <t>Đang Cập Nhập</t>
+  </si>
+  <si>
+    <t>Tư Liệu 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gửi ảnh vào link để làm tư liệu bổn mạng </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1IVawCMt9xO_6Cnvzh2S28Q6U66pePz7e</t>
+  </si>
+  <si>
+    <t>Gửi Ảnh</t>
+  </si>
+  <si>
+    <t>nhau.jpg</t>
   </si>
 </sst>
 </file>
@@ -217,7 +244,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -227,9 +254,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -549,7 +573,7 @@
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -580,11 +604,14 @@
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
@@ -603,7 +630,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -622,9 +649,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4">
         <v>2024</v>
       </c>
@@ -679,7 +703,51 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2026</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
       <c r="G7" s="2"/>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M27" t="s">

--- a/hoatdong.xlsx
+++ b/hoatdong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD4F1B-0C9A-2B49-8B9C-EE64E000C7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB5D3DD-5671-D14F-B33F-45AE776558CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Nổi Bật</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Xem shop</t>
   </si>
   <si>
-    <t>Bán tài khoản và phần mềm uy tín</t>
-  </si>
-  <si>
-    <t>Nộp Đơn</t>
-  </si>
-  <si>
     <t>chu de</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>Xem ngay</t>
   </si>
   <si>
-    <t>nghithucnha</t>
-  </si>
-  <si>
     <t xml:space="preserve">LXBC </t>
   </si>
   <si>
@@ -136,22 +127,28 @@
     <t>Bổn Mạng Nhà 2026</t>
   </si>
   <si>
-    <t>Đang Cập Nhập</t>
-  </si>
-  <si>
     <t>Tư Liệu 2025</t>
   </si>
   <si>
     <t xml:space="preserve">gửi ảnh vào link để làm tư liệu bổn mạng </t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/folders/1IVawCMt9xO_6Cnvzh2S28Q6U66pePz7e</t>
-  </si>
-  <si>
     <t>Gửi Ảnh</t>
   </si>
   <si>
     <t>nhau.jpg</t>
+  </si>
+  <si>
+    <t>Nộp tại đây</t>
+  </si>
+  <si>
+    <t>bonmang2026.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/15vvwM8k_XceMiOjOIIpUWbvNwV6kRFwR?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1IVawCMt9xO_6Cnvzh2S28Q6U66pePz7e?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -562,7 +559,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,6 +571,7 @@
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -587,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -605,27 +603,27 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>11110000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -639,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -656,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -665,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -673,7 +671,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -681,11 +679,8 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -693,13 +688,13 @@
     </row>
     <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -710,17 +705,22 @@
         <v>2026</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -728,30 +728,30 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/hoatdong.xlsx
+++ b/hoatdong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB5D3DD-5671-D14F-B33F-45AE776558CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B352A60E-0540-0A45-BFA6-276A8ECB125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Nổi Bật</t>
   </si>
@@ -124,15 +124,6 @@
     <t>LXBC</t>
   </si>
   <si>
-    <t>Bổn Mạng Nhà 2026</t>
-  </si>
-  <si>
-    <t>Tư Liệu 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gửi ảnh vào link để làm tư liệu bổn mạng </t>
-  </si>
-  <si>
     <t>Gửi Ảnh</t>
   </si>
   <si>
@@ -149,6 +140,18 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1IVawCMt9xO_6Cnvzh2S28Q6U66pePz7e?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/16sW6i0hXS5sGh2gQ7PkoB9GitKugGoNq?usp=sharing</t>
+  </si>
+  <si>
+    <t>Bổn Mạng Nhà</t>
+  </si>
+  <si>
+    <t>Tư Liệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gửi ảnh vào link </t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -616,6 +619,9 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
@@ -643,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -711,13 +717,13 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -734,19 +740,19 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="13:13" x14ac:dyDescent="0.2">
@@ -760,6 +766,7 @@
     <hyperlink ref="G6" r:id="rId1" xr:uid="{8FD3C6DF-7F31-CB4D-94DC-45F988E68F03}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{1FD01458-03BC-8544-BC36-F75C742DABE9}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{103A95F4-A602-4B47-96EC-5DDE1997B484}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{20AA7DD8-DF0A-3043-902B-1283BED62670}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
